--- a/Execucoes Gerais/novo_final_AGEOvar357911.xlsx
+++ b/Execucoes Gerais/novo_final_AGEOvar357911.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14460" windowHeight="7905" activeTab="5"/>
+    <workbookView windowWidth="19485" windowHeight="7860" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GRI" sheetId="9" r:id="rId1"/>
@@ -107,9 +107,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -121,8 +121,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,9 +151,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,7 +228,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -161,9 +237,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,91 +258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,49 +274,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +328,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +364,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,55 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,43 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,65 +465,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -545,8 +486,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,153 +530,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2703,7 +2703,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US">
                   <a:solidFill>
@@ -4837,7 +4837,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US">
                   <a:solidFill>
@@ -6971,7 +6971,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US">
                   <a:solidFill>
@@ -11204,7 +11204,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US">
                   <a:solidFill>
@@ -13337,7 +13337,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US">
                   <a:solidFill>
@@ -15471,7 +15471,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US">
                   <a:solidFill>
@@ -17604,7 +17604,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US">
                   <a:solidFill>
@@ -19738,7 +19738,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US">
                   <a:solidFill>
@@ -21871,7 +21871,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US">
                   <a:solidFill>
@@ -24004,7 +24004,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US">
                   <a:solidFill>
@@ -26138,7 +26138,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US">
                   <a:solidFill>
@@ -28271,7 +28271,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US">
                   <a:solidFill>
@@ -35492,15 +35492,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>12065</xdr:colOff>
+      <xdr:colOff>2540</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
+      <xdr:rowOff>26035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>262255</xdr:colOff>
+      <xdr:colOff>252730</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -35508,7 +35508,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7432040" y="7433310"/>
+        <a:off x="7422515" y="7446010"/>
         <a:ext cx="4098290" cy="2799715"/>
       </xdr:xfrm>
       <a:graphic>
@@ -35813,7 +35813,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -37740,8 +37740,8 @@
   <sheetPr/>
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -45415,7 +45415,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:B66"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
